--- a/biology/Médecine/Sillon_du_sinus_transverse/Sillon_du_sinus_transverse.xlsx
+++ b/biology/Médecine/Sillon_du_sinus_transverse/Sillon_du_sinus_transverse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sillon du sinus transverse (ou gouttière du sinus latéral) est une longue rainure qui longe la surface interne de la base du crâne.
 Il démarre par un premier segment sur la face interne de l'écaille de l'os occipital, s'étendant latéralement entre les fosses supérieure et inférieure de l'éminence cruciforme. C'est le sillon du sinus transverse proprement dit.
